--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D866F-962A-4344-AED7-C1025808DFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49549C-407D-4A01-9F44-1BC3C7D8C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Suppression d'un utilisateur</t>
   </si>
   <si>
-    <t>Réalisation due défilme aléatoire des aliments</t>
-  </si>
-  <si>
     <t>Incrementation ou diminution du score selon l'aliment sélectionnait par rapport à la  catégorie</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Augmentation de la vitesse du défilment des aliments du  joueur ayant le score le plus petit</t>
+  </si>
+  <si>
+    <t>Réalisation du défilment aléatoire des aliments</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1135,12 +1135,12 @@
         <v>17</v>
       </c>
       <c r="B11" s="25">
-        <v>9.7222222222222224E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="26"/>
       <c r="E11" s="12">
-        <v>9.7222222222222224E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="13"/>
@@ -1152,20 +1152,20 @@
       <c r="M11" s="27"/>
       <c r="N11" s="6">
         <f t="shared" si="0"/>
-        <v>9.7222222222222224E-2</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="25">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="26"/>
       <c r="E12" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="13"/>
@@ -1177,20 +1177,20 @@
       <c r="M12" s="27"/>
       <c r="N12" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="25">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="26"/>
       <c r="E13" s="12">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="13"/>
@@ -1202,12 +1202,12 @@
       <c r="M13" s="27"/>
       <c r="N13" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="20">
         <v>0.125</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="25">
         <v>0.1388888888888889</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="25">
         <v>0.15972222222222224</v>
@@ -1343,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="25">
-        <v>0.52777777777777779</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C19" s="12">
         <v>2.0833333333333332E-2</v>
@@ -1352,7 +1352,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E19" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F19" s="26">
         <v>2.0833333333333332E-2</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" si="1"/>
-        <v>0.52777777777777768</v>
+        <v>0.52083333333333326</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="12"/>
@@ -1599,7 +1599,7 @@
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <f t="shared" ref="B29:M29" si="2">SUM(B2:B28)</f>
-        <v>3.6666666666666665</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="2"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="2"/>
-        <v>0.33333333333333326</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>

--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49549C-407D-4A01-9F44-1BC3C7D8C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4828042-0D7F-4010-8CEB-83A49C4419CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4828042-0D7F-4010-8CEB-83A49C4419CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F926D-71BE-4E8F-AB70-6EA889A6C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3285" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning réél" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F926D-71BE-4E8F-AB70-6EA889A6C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88B5C3-8A6C-4A0F-9168-17C5BD264B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3285" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2625" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning réél" sheetId="1" r:id="rId1"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="20">
-        <v>0.78472222222222221</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="C4" s="11">
         <v>4.1666666666666664E-2</v>
@@ -961,7 +961,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I4" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="J4" s="23">
         <v>0.125</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="N4" s="6">
         <f>SUM(C4:M4)</f>
-        <v>0.78472222222222221</v>
+        <v>0.79861111111111116</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="25">
-        <v>0.79166666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="26"/>
@@ -1273,7 +1273,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="I16" s="12">
-        <v>0.2638888888888889</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="26">
         <v>8.3333333333333329E-2</v>
@@ -1283,7 +1283,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="6">
         <f t="shared" si="1"/>
-        <v>0.79166666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88B5C3-8A6C-4A0F-9168-17C5BD264B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08378BC3-FF8F-47D5-AAEC-BB5A7694248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2625" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning réél" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
     <t>Augmentation de la vitesse du défilment des aliments du  joueur ayant le score le plus petit</t>
   </si>
   <si>
-    <t>Réalisation du défilment aléatoire des aliments</t>
+    <t>Réalisation du défilement aléatoire des aliments</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="20">
-        <v>0.79861111111111116</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="C4" s="11">
         <v>4.1666666666666664E-2</v>
@@ -964,10 +964,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J4" s="23">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K4" s="23">
-        <v>0.125</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="L4" s="23">
         <v>0.11805555555555557</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="N4" s="6">
         <f>SUM(C4:M4)</f>
-        <v>0.79861111111111116</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="25">
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="26"/>
@@ -1276,14 +1276,14 @@
         <v>0.25</v>
       </c>
       <c r="J16" s="26">
-        <v>8.3333333333333329E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="13"/>
       <c r="M16" s="27"/>
       <c r="N16" s="6">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="25">
-        <v>0.15972222222222224</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="26"/>
@@ -1326,16 +1326,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="12"/>
       <c r="J18" s="26">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0.10416666666666667</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K18" s="26"/>
       <c r="L18" s="12"/>
       <c r="M18" s="27"/>
       <c r="N18" s="6">
         <f t="shared" si="1"/>
-        <v>0.15972222222222221</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1341,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="25">
-        <v>0.52083333333333337</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C19" s="12">
         <v>2.0833333333333332E-2</v>
@@ -1370,7 +1368,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="K19" s="26">
-        <v>9.7222222222222224E-2</v>
+        <v>0.13194444444444445</v>
       </c>
       <c r="L19" s="12">
         <v>8.3333333333333329E-2</v>
@@ -1380,7 +1378,7 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" si="1"/>
-        <v>0.52083333333333326</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1597,7 @@
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <f t="shared" ref="B29:M29" si="2">SUM(B2:B28)</f>
-        <v>3.666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="2"/>
@@ -1631,7 +1629,7 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
-        <v>0.33333333333333326</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="2"/>

--- a/documentation/Planification-Réel.xlsx
+++ b/documentation/Planification-Réel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEFAN.NKLC\Documents\PHP\TPI-main-NikolicStefan\TPi-main-NikolicStefan\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08378BC3-FF8F-47D5-AAEC-BB5A7694248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE00C7A-E1DD-49F6-98F0-F5B3922D6D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="20">
-        <v>0.78472222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="C4" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E4" s="23">
         <v>4.1666666666666664E-2</v>
@@ -955,7 +955,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G4" s="23">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H4" s="23">
         <v>4.1666666666666664E-2</v>
@@ -977,7 +977,7 @@
       </c>
       <c r="N4" s="6">
         <f>SUM(C4:M4)</f>
-        <v>0.78472222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,11 +1035,11 @@
         <v>24</v>
       </c>
       <c r="B7" s="25">
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="26">
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="26"/>
@@ -1052,7 +1052,7 @@
       <c r="M7" s="27"/>
       <c r="N7" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,11 +1060,11 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="26">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="26"/>
@@ -1077,7 +1077,7 @@
       <c r="M8" s="27"/>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
         <v>29</v>
       </c>
       <c r="B9" s="25">
-        <v>7.6388888888888895E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="26">
-        <v>7.6388888888888895E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="26"/>
@@ -1102,7 +1102,7 @@
       <c r="M9" s="27"/>
       <c r="N9" s="6">
         <f t="shared" si="0"/>
-        <v>7.6388888888888895E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,14 +1260,14 @@
         <v>18</v>
       </c>
       <c r="B16" s="25">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="26"/>
       <c r="E16" s="12"/>
       <c r="F16" s="26"/>
       <c r="G16" s="28">
-        <v>0.18055555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H16" s="26">
         <v>0.2638888888888889</v>
@@ -1283,7 +1283,7 @@
       <c r="M16" s="27"/>
       <c r="N16" s="6">
         <f t="shared" si="1"/>
-        <v>0.83333333333333326</v>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <f t="shared" ref="B29:M29" si="2">SUM(B2:B28)</f>
-        <v>3.6666666666666665</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="2"/>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="N29" s="9">
         <f>SUM(N2:N28)</f>
-        <v>3.6666666666666665</v>
+        <v>3.6666666666666674</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
